--- a/scenario_comparison.xlsx
+++ b/scenario_comparison.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="3.3 @ M13 -&gt; 2.8 @ M25" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="3.3 @ M13 -&gt; 2.2 @ M25" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2.1 @ M13 -&gt; 2.8 @ M25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2.1 @ M13 -&gt; 2.2 @ M25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="3.3 @ M13 -&gt; 3.1 @ M25" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="3.3 @ M13 -&gt; 3 @ M25" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3.3 @ M13 -&gt; 2.9 @ M25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="3.3 @ M13 -&gt; 2.8 @ M25" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,842 +495,1262 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="C2" t="n">
-        <v>417897.67</v>
+        <v>407294.24</v>
       </c>
       <c r="D2" t="n">
-        <v>1867.28</v>
+        <v>1814.91</v>
       </c>
       <c r="E2" t="n">
-        <v>1149.22</v>
+        <v>1052.18</v>
       </c>
       <c r="F2" t="n">
-        <v>2518.06</v>
+        <v>762.74</v>
       </c>
       <c r="G2" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>415379.61</v>
+        <v>406531.51</v>
       </c>
       <c r="I2" t="n">
-        <v>19285.33</v>
+        <v>32792.17</v>
       </c>
       <c r="J2" t="n">
-        <v>9620.389999999999</v>
+        <v>18468.49</v>
       </c>
       <c r="K2" t="n">
-        <v>28905.72</v>
+        <v>51260.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="C3" t="n">
-        <v>415379.61</v>
+        <v>406531.51</v>
       </c>
       <c r="D3" t="n">
-        <v>1867.28</v>
+        <v>1814.91</v>
       </c>
       <c r="E3" t="n">
-        <v>1142.29</v>
+        <v>1050.21</v>
       </c>
       <c r="F3" t="n">
-        <v>724.98</v>
+        <v>764.71</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>414654.63</v>
+        <v>405766.8</v>
       </c>
       <c r="I3" t="n">
-        <v>20427.62</v>
+        <v>33842.38</v>
       </c>
       <c r="J3" t="n">
-        <v>10345.37</v>
+        <v>19233.2</v>
       </c>
       <c r="K3" t="n">
-        <v>30773</v>
+        <v>53075.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="C4" t="n">
-        <v>414654.63</v>
+        <v>405766.8</v>
       </c>
       <c r="D4" t="n">
-        <v>1867.28</v>
+        <v>1814.91</v>
       </c>
       <c r="E4" t="n">
-        <v>1140.3</v>
+        <v>1048.23</v>
       </c>
       <c r="F4" t="n">
-        <v>726.98</v>
+        <v>766.6799999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>413927.65</v>
+        <v>405000.12</v>
       </c>
       <c r="I4" t="n">
-        <v>21567.92</v>
+        <v>34890.61</v>
       </c>
       <c r="J4" t="n">
-        <v>11072.35</v>
+        <v>19999.88</v>
       </c>
       <c r="K4" t="n">
-        <v>32640.27</v>
+        <v>54890.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="C5" t="n">
-        <v>413927.65</v>
+        <v>405000.12</v>
       </c>
       <c r="D5" t="n">
-        <v>1867.28</v>
+        <v>1814.91</v>
       </c>
       <c r="E5" t="n">
-        <v>1138.3</v>
+        <v>1046.25</v>
       </c>
       <c r="F5" t="n">
-        <v>728.97</v>
+        <v>768.66</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>413198.68</v>
+        <v>404231.46</v>
       </c>
       <c r="I5" t="n">
-        <v>22706.22</v>
+        <v>35936.86</v>
       </c>
       <c r="J5" t="n">
-        <v>11801.32</v>
+        <v>20768.54</v>
       </c>
       <c r="K5" t="n">
-        <v>34507.55</v>
+        <v>56705.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="C6" t="n">
-        <v>413198.68</v>
+        <v>404231.46</v>
       </c>
       <c r="D6" t="n">
-        <v>1867.28</v>
+        <v>1814.91</v>
       </c>
       <c r="E6" t="n">
-        <v>1136.3</v>
+        <v>1044.26</v>
       </c>
       <c r="F6" t="n">
-        <v>730.98</v>
+        <v>770.65</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>412467.7</v>
+        <v>403460.81</v>
       </c>
       <c r="I6" t="n">
-        <v>23842.52</v>
+        <v>36981.13</v>
       </c>
       <c r="J6" t="n">
-        <v>12532.3</v>
+        <v>21539.19</v>
       </c>
       <c r="K6" t="n">
-        <v>36374.82</v>
+        <v>58520.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="C7" t="n">
-        <v>412467.7</v>
+        <v>403460.81</v>
       </c>
       <c r="D7" t="n">
-        <v>1867.28</v>
+        <v>1814.91</v>
       </c>
       <c r="E7" t="n">
-        <v>1134.29</v>
+        <v>1042.27</v>
       </c>
       <c r="F7" t="n">
-        <v>732.99</v>
+        <v>772.64</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>411734.71</v>
+        <v>402688.17</v>
       </c>
       <c r="I7" t="n">
-        <v>24976.81</v>
+        <v>38023.4</v>
       </c>
       <c r="J7" t="n">
-        <v>13265.29</v>
+        <v>22311.83</v>
       </c>
       <c r="K7" t="n">
-        <v>38242.1</v>
+        <v>60335.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="C8" t="n">
-        <v>411734.71</v>
+        <v>402688.17</v>
       </c>
       <c r="D8" t="n">
-        <v>1867.28</v>
+        <v>1814.91</v>
       </c>
       <c r="E8" t="n">
-        <v>1132.27</v>
+        <v>1040.28</v>
       </c>
       <c r="F8" t="n">
-        <v>735.01</v>
+        <v>774.63</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>410999.7</v>
+        <v>401913.54</v>
       </c>
       <c r="I8" t="n">
-        <v>26109.08</v>
+        <v>39063.68</v>
       </c>
       <c r="J8" t="n">
-        <v>14000.3</v>
+        <v>23086.46</v>
       </c>
       <c r="K8" t="n">
-        <v>40109.37</v>
+        <v>62150.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="C9" t="n">
-        <v>410999.7</v>
+        <v>401913.54</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.28</v>
+        <v>1814.91</v>
       </c>
       <c r="E9" t="n">
-        <v>1130.25</v>
+        <v>1038.28</v>
       </c>
       <c r="F9" t="n">
-        <v>737.03</v>
+        <v>776.64</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>410262.67</v>
+        <v>401136.9</v>
       </c>
       <c r="I9" t="n">
-        <v>27239.33</v>
+        <v>40101.96</v>
       </c>
       <c r="J9" t="n">
-        <v>14737.33</v>
+        <v>23863.1</v>
       </c>
       <c r="K9" t="n">
-        <v>41976.65</v>
+        <v>63965.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="C10" t="n">
-        <v>410262.67</v>
+        <v>401136.9</v>
       </c>
       <c r="D10" t="n">
-        <v>1867.28</v>
+        <v>1814.91</v>
       </c>
       <c r="E10" t="n">
-        <v>1128.22</v>
+        <v>1036.27</v>
       </c>
       <c r="F10" t="n">
-        <v>739.05</v>
+        <v>778.64</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>409523.62</v>
+        <v>400358.26</v>
       </c>
       <c r="I10" t="n">
-        <v>28367.55</v>
+        <v>41138.23</v>
       </c>
       <c r="J10" t="n">
-        <v>15476.38</v>
+        <v>24641.74</v>
       </c>
       <c r="K10" t="n">
-        <v>43843.93</v>
+        <v>65779.97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="C11" t="n">
-        <v>409523.62</v>
+        <v>400358.26</v>
       </c>
       <c r="D11" t="n">
-        <v>1867.28</v>
+        <v>1814.91</v>
       </c>
       <c r="E11" t="n">
-        <v>1126.19</v>
+        <v>1034.26</v>
       </c>
       <c r="F11" t="n">
-        <v>741.09</v>
+        <v>780.65</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>408782.54</v>
+        <v>399577.6</v>
       </c>
       <c r="I11" t="n">
-        <v>29493.74</v>
+        <v>42172.48</v>
       </c>
       <c r="J11" t="n">
-        <v>16217.46</v>
+        <v>25422.4</v>
       </c>
       <c r="K11" t="n">
-        <v>45711.2</v>
+        <v>67594.88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="C12" t="n">
-        <v>408782.54</v>
+        <v>399577.6</v>
       </c>
       <c r="D12" t="n">
-        <v>1867.28</v>
+        <v>1814.91</v>
       </c>
       <c r="E12" t="n">
-        <v>1124.15</v>
+        <v>1032.24</v>
       </c>
       <c r="F12" t="n">
-        <v>743.12</v>
+        <v>782.67</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>408039.41</v>
+        <v>398794.93</v>
       </c>
       <c r="I12" t="n">
-        <v>30617.89</v>
+        <v>43204.73</v>
       </c>
       <c r="J12" t="n">
-        <v>16960.59</v>
+        <v>26205.07</v>
       </c>
       <c r="K12" t="n">
-        <v>47578.48</v>
+        <v>69409.78999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="C13" t="n">
-        <v>408039.41</v>
+        <v>398794.93</v>
       </c>
       <c r="D13" t="n">
-        <v>1867.28</v>
+        <v>1814.91</v>
       </c>
       <c r="E13" t="n">
-        <v>1122.11</v>
+        <v>1030.22</v>
       </c>
       <c r="F13" t="n">
-        <v>745.17</v>
+        <v>784.6900000000001</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>407294.24</v>
+        <v>398010.24</v>
       </c>
       <c r="I13" t="n">
-        <v>31740</v>
+        <v>44234.95</v>
       </c>
       <c r="J13" t="n">
-        <v>17705.76</v>
+        <v>26989.76</v>
       </c>
       <c r="K13" t="n">
-        <v>49445.75</v>
+        <v>71224.71000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="C14" t="n">
-        <v>407294.24</v>
+        <v>398010.24</v>
       </c>
       <c r="D14" t="n">
-        <v>1750.17</v>
+        <v>1814.91</v>
       </c>
       <c r="E14" t="n">
-        <v>950.35</v>
+        <v>1028.19</v>
       </c>
       <c r="F14" t="n">
-        <v>799.8099999999999</v>
+        <v>786.72</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>406494.43</v>
+        <v>397223.52</v>
       </c>
       <c r="I14" t="n">
-        <v>32690.35</v>
+        <v>45263.14</v>
       </c>
       <c r="J14" t="n">
-        <v>18505.57</v>
+        <v>27776.48</v>
       </c>
       <c r="K14" t="n">
-        <v>51195.92</v>
+        <v>73039.62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="C15" t="n">
-        <v>406494.43</v>
+        <v>397223.52</v>
       </c>
       <c r="D15" t="n">
-        <v>1750.17</v>
+        <v>1814.91</v>
       </c>
       <c r="E15" t="n">
-        <v>948.49</v>
+        <v>1026.16</v>
       </c>
       <c r="F15" t="n">
-        <v>801.6799999999999</v>
+        <v>788.75</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>405692.75</v>
+        <v>396434.77</v>
       </c>
       <c r="I15" t="n">
-        <v>33638.84</v>
+        <v>46289.3</v>
       </c>
       <c r="J15" t="n">
-        <v>19307.25</v>
+        <v>28565.23</v>
       </c>
       <c r="K15" t="n">
-        <v>52946.09</v>
+        <v>74854.53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="C16" t="n">
-        <v>405692.75</v>
+        <v>396434.77</v>
       </c>
       <c r="D16" t="n">
-        <v>1750.17</v>
+        <v>1814.91</v>
       </c>
       <c r="E16" t="n">
-        <v>946.62</v>
+        <v>1024.12</v>
       </c>
       <c r="F16" t="n">
-        <v>803.55</v>
+        <v>790.79</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>404889.2</v>
+        <v>395643.98</v>
       </c>
       <c r="I16" t="n">
-        <v>34585.45</v>
+        <v>47313.42</v>
       </c>
       <c r="J16" t="n">
-        <v>20110.8</v>
+        <v>29356.02</v>
       </c>
       <c r="K16" t="n">
-        <v>54696.26</v>
+        <v>76669.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="C17" t="n">
-        <v>404889.2</v>
+        <v>395643.98</v>
       </c>
       <c r="D17" t="n">
-        <v>1750.17</v>
+        <v>1814.91</v>
       </c>
       <c r="E17" t="n">
-        <v>944.74</v>
+        <v>1022.08</v>
       </c>
       <c r="F17" t="n">
-        <v>805.4299999999999</v>
+        <v>792.83</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>404083.77</v>
+        <v>394851.15</v>
       </c>
       <c r="I17" t="n">
-        <v>35530.2</v>
+        <v>48335.5</v>
       </c>
       <c r="J17" t="n">
-        <v>20916.23</v>
+        <v>30148.85</v>
       </c>
       <c r="K17" t="n">
-        <v>56446.43</v>
+        <v>78484.36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="C18" t="n">
-        <v>404083.77</v>
+        <v>394851.15</v>
       </c>
       <c r="D18" t="n">
-        <v>1750.17</v>
+        <v>1814.91</v>
       </c>
       <c r="E18" t="n">
-        <v>942.86</v>
+        <v>1020.03</v>
       </c>
       <c r="F18" t="n">
-        <v>807.3099999999999</v>
+        <v>794.88</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>403276.46</v>
+        <v>394056.27</v>
       </c>
       <c r="I18" t="n">
-        <v>36473.06</v>
+        <v>49355.54</v>
       </c>
       <c r="J18" t="n">
-        <v>21723.54</v>
+        <v>30943.73</v>
       </c>
       <c r="K18" t="n">
-        <v>58196.6</v>
+        <v>80299.27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="C19" t="n">
-        <v>403276.46</v>
+        <v>394056.27</v>
       </c>
       <c r="D19" t="n">
-        <v>1750.17</v>
+        <v>1814.91</v>
       </c>
       <c r="E19" t="n">
-        <v>940.98</v>
+        <v>1017.98</v>
       </c>
       <c r="F19" t="n">
-        <v>809.1900000000001</v>
+        <v>796.9299999999999</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>402467.27</v>
+        <v>393259.33</v>
       </c>
       <c r="I19" t="n">
-        <v>37414.04</v>
+        <v>50373.52</v>
       </c>
       <c r="J19" t="n">
-        <v>22532.73</v>
+        <v>31740.67</v>
       </c>
       <c r="K19" t="n">
-        <v>59946.76</v>
+        <v>82114.17999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="C20" t="n">
-        <v>402467.27</v>
+        <v>393259.33</v>
       </c>
       <c r="D20" t="n">
-        <v>1750.17</v>
+        <v>1814.91</v>
       </c>
       <c r="E20" t="n">
-        <v>939.09</v>
+        <v>1015.92</v>
       </c>
       <c r="F20" t="n">
-        <v>811.08</v>
+        <v>798.99</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>401656.2</v>
+        <v>392460.34</v>
       </c>
       <c r="I20" t="n">
-        <v>38353.13</v>
+        <v>51389.43</v>
       </c>
       <c r="J20" t="n">
-        <v>23343.8</v>
+        <v>32539.66</v>
       </c>
       <c r="K20" t="n">
-        <v>61696.93</v>
+        <v>83929.10000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="C21" t="n">
-        <v>401656.2</v>
+        <v>392460.34</v>
       </c>
       <c r="D21" t="n">
-        <v>1750.17</v>
+        <v>1814.91</v>
       </c>
       <c r="E21" t="n">
-        <v>937.2</v>
+        <v>1013.86</v>
       </c>
       <c r="F21" t="n">
-        <v>812.97</v>
+        <v>801.0599999999999</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>400843.23</v>
+        <v>391659.28</v>
       </c>
       <c r="I21" t="n">
-        <v>39290.32</v>
+        <v>52403.29</v>
       </c>
       <c r="J21" t="n">
-        <v>24156.77</v>
+        <v>33340.72</v>
       </c>
       <c r="K21" t="n">
-        <v>63447.1</v>
+        <v>85744.00999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="C22" t="n">
-        <v>400843.23</v>
+        <v>391659.28</v>
       </c>
       <c r="D22" t="n">
-        <v>1750.17</v>
+        <v>1814.91</v>
       </c>
       <c r="E22" t="n">
-        <v>935.3</v>
+        <v>1011.79</v>
       </c>
       <c r="F22" t="n">
-        <v>814.87</v>
+        <v>803.13</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>400028.36</v>
+        <v>390856.16</v>
       </c>
       <c r="I22" t="n">
-        <v>40225.63</v>
+        <v>53415.08</v>
       </c>
       <c r="J22" t="n">
-        <v>24971.64</v>
+        <v>34143.84</v>
       </c>
       <c r="K22" t="n">
-        <v>65197.27</v>
+        <v>87558.92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="C23" t="n">
-        <v>400028.36</v>
+        <v>390856.16</v>
       </c>
       <c r="D23" t="n">
-        <v>1750.17</v>
+        <v>1814.91</v>
       </c>
       <c r="E23" t="n">
-        <v>933.4</v>
+        <v>1009.71</v>
       </c>
       <c r="F23" t="n">
-        <v>816.77</v>
+        <v>805.2</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>399211.59</v>
+        <v>390050.95</v>
       </c>
       <c r="I23" t="n">
-        <v>41159.03</v>
+        <v>54424.79</v>
       </c>
       <c r="J23" t="n">
-        <v>25788.41</v>
+        <v>34949.05</v>
       </c>
       <c r="K23" t="n">
-        <v>66947.44</v>
+        <v>89373.83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="C24" t="n">
-        <v>399211.59</v>
+        <v>390050.95</v>
       </c>
       <c r="D24" t="n">
-        <v>1750.17</v>
+        <v>1814.91</v>
       </c>
       <c r="E24" t="n">
-        <v>931.49</v>
+        <v>1007.63</v>
       </c>
       <c r="F24" t="n">
-        <v>818.67</v>
+        <v>807.28</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>398392.91</v>
+        <v>389243.67</v>
       </c>
       <c r="I24" t="n">
-        <v>42090.52</v>
+        <v>55432.42</v>
       </c>
       <c r="J24" t="n">
-        <v>26607.09</v>
+        <v>35756.33</v>
       </c>
       <c r="K24" t="n">
-        <v>68697.60000000001</v>
+        <v>91188.75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="C25" t="n">
-        <v>398392.91</v>
+        <v>389243.67</v>
       </c>
       <c r="D25" t="n">
-        <v>1750.17</v>
+        <v>1814.91</v>
       </c>
       <c r="E25" t="n">
-        <v>929.58</v>
+        <v>1005.55</v>
       </c>
       <c r="F25" t="n">
-        <v>820.58</v>
+        <v>809.37</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>397572.33</v>
+        <v>388434.31</v>
       </c>
       <c r="I25" t="n">
-        <v>43020.1</v>
+        <v>56437.97</v>
       </c>
       <c r="J25" t="n">
-        <v>27427.67</v>
+        <v>36565.69</v>
       </c>
       <c r="K25" t="n">
-        <v>70447.77</v>
+        <v>93003.66</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>49</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>388434.31</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1814.91</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1003.46</v>
+      </c>
+      <c r="F26" t="n">
+        <v>811.46</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>387622.85</v>
+      </c>
+      <c r="I26" t="n">
+        <v>57441.42</v>
+      </c>
+      <c r="J26" t="n">
+        <v>37377.15</v>
+      </c>
+      <c r="K26" t="n">
+        <v>94818.57000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>50</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>387622.85</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1814.91</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1001.36</v>
+      </c>
+      <c r="F27" t="n">
+        <v>813.55</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>386809.3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>58442.78</v>
+      </c>
+      <c r="J27" t="n">
+        <v>38190.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>96633.49000000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>51</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>386809.3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1814.91</v>
+      </c>
+      <c r="E28" t="n">
+        <v>999.26</v>
+      </c>
+      <c r="F28" t="n">
+        <v>815.66</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>385993.64</v>
+      </c>
+      <c r="I28" t="n">
+        <v>59442.04</v>
+      </c>
+      <c r="J28" t="n">
+        <v>39006.36</v>
+      </c>
+      <c r="K28" t="n">
+        <v>98448.39999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>385993.64</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1814.91</v>
+      </c>
+      <c r="E29" t="n">
+        <v>997.15</v>
+      </c>
+      <c r="F29" t="n">
+        <v>817.76</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>385175.88</v>
+      </c>
+      <c r="I29" t="n">
+        <v>60439.19</v>
+      </c>
+      <c r="J29" t="n">
+        <v>39824.12</v>
+      </c>
+      <c r="K29" t="n">
+        <v>100263.31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>385175.88</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1814.91</v>
+      </c>
+      <c r="E30" t="n">
+        <v>995.04</v>
+      </c>
+      <c r="F30" t="n">
+        <v>819.88</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>384356</v>
+      </c>
+      <c r="I30" t="n">
+        <v>61434.23</v>
+      </c>
+      <c r="J30" t="n">
+        <v>40644</v>
+      </c>
+      <c r="K30" t="n">
+        <v>102078.22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>384356</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1814.91</v>
+      </c>
+      <c r="E31" t="n">
+        <v>992.92</v>
+      </c>
+      <c r="F31" t="n">
+        <v>821.99</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>383534.01</v>
+      </c>
+      <c r="I31" t="n">
+        <v>62427.15</v>
+      </c>
+      <c r="J31" t="n">
+        <v>41465.99</v>
+      </c>
+      <c r="K31" t="n">
+        <v>103893.14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>383534.01</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1814.91</v>
+      </c>
+      <c r="E32" t="n">
+        <v>990.8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>824.12</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>382709.89</v>
+      </c>
+      <c r="I32" t="n">
+        <v>63417.94</v>
+      </c>
+      <c r="J32" t="n">
+        <v>42290.11</v>
+      </c>
+      <c r="K32" t="n">
+        <v>105708.05</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>56</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>382709.89</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1814.91</v>
+      </c>
+      <c r="E33" t="n">
+        <v>988.67</v>
+      </c>
+      <c r="F33" t="n">
+        <v>826.25</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>381883.65</v>
+      </c>
+      <c r="I33" t="n">
+        <v>64406.61</v>
+      </c>
+      <c r="J33" t="n">
+        <v>43116.35</v>
+      </c>
+      <c r="K33" t="n">
+        <v>107522.96</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>381883.65</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1814.91</v>
+      </c>
+      <c r="E34" t="n">
+        <v>986.53</v>
+      </c>
+      <c r="F34" t="n">
+        <v>828.38</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>381055.27</v>
+      </c>
+      <c r="I34" t="n">
+        <v>65393.14</v>
+      </c>
+      <c r="J34" t="n">
+        <v>43944.73</v>
+      </c>
+      <c r="K34" t="n">
+        <v>109337.88</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>381055.27</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1814.91</v>
+      </c>
+      <c r="E35" t="n">
+        <v>984.39</v>
+      </c>
+      <c r="F35" t="n">
+        <v>830.52</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>380224.75</v>
+      </c>
+      <c r="I35" t="n">
+        <v>66377.53999999999</v>
+      </c>
+      <c r="J35" t="n">
+        <v>44775.25</v>
+      </c>
+      <c r="K35" t="n">
+        <v>111152.79</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>380224.75</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1814.91</v>
+      </c>
+      <c r="E36" t="n">
+        <v>982.25</v>
+      </c>
+      <c r="F36" t="n">
+        <v>832.67</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>379392.08</v>
+      </c>
+      <c r="I36" t="n">
+        <v>67359.78</v>
+      </c>
+      <c r="J36" t="n">
+        <v>45607.92</v>
+      </c>
+      <c r="K36" t="n">
+        <v>112967.7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>379392.08</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1814.91</v>
+      </c>
+      <c r="E37" t="n">
+        <v>980.1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>834.8200000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>378557.27</v>
+      </c>
+      <c r="I37" t="n">
+        <v>68339.88</v>
+      </c>
+      <c r="J37" t="n">
+        <v>46442.73</v>
+      </c>
+      <c r="K37" t="n">
+        <v>114782.61</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,842 +1831,1262 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>417897.67</v>
+        <v>407294.24</v>
       </c>
       <c r="D2" t="n">
-        <v>1867.28</v>
+        <v>1793.18</v>
       </c>
       <c r="E2" t="n">
-        <v>1149.22</v>
+        <v>1018.24</v>
       </c>
       <c r="F2" t="n">
-        <v>2518.06</v>
+        <v>774.95</v>
       </c>
       <c r="G2" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>415379.61</v>
+        <v>406519.3</v>
       </c>
       <c r="I2" t="n">
-        <v>19285.33</v>
+        <v>32758.23</v>
       </c>
       <c r="J2" t="n">
-        <v>9620.389999999999</v>
+        <v>18480.7</v>
       </c>
       <c r="K2" t="n">
-        <v>28905.72</v>
+        <v>51238.94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>415379.61</v>
+        <v>406519.3</v>
       </c>
       <c r="D3" t="n">
-        <v>1867.28</v>
+        <v>1793.18</v>
       </c>
       <c r="E3" t="n">
-        <v>1142.29</v>
+        <v>1016.3</v>
       </c>
       <c r="F3" t="n">
-        <v>724.98</v>
+        <v>776.89</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>414654.63</v>
+        <v>405742.41</v>
       </c>
       <c r="I3" t="n">
-        <v>20427.62</v>
+        <v>33774.53</v>
       </c>
       <c r="J3" t="n">
-        <v>10345.37</v>
+        <v>19257.59</v>
       </c>
       <c r="K3" t="n">
-        <v>30773</v>
+        <v>53032.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>414654.63</v>
+        <v>405742.41</v>
       </c>
       <c r="D4" t="n">
-        <v>1867.28</v>
+        <v>1793.18</v>
       </c>
       <c r="E4" t="n">
-        <v>1140.3</v>
+        <v>1014.36</v>
       </c>
       <c r="F4" t="n">
-        <v>726.98</v>
+        <v>778.83</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>413927.65</v>
+        <v>404963.58</v>
       </c>
       <c r="I4" t="n">
-        <v>21567.92</v>
+        <v>34788.89</v>
       </c>
       <c r="J4" t="n">
-        <v>11072.35</v>
+        <v>20036.42</v>
       </c>
       <c r="K4" t="n">
-        <v>32640.27</v>
+        <v>54825.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>413927.65</v>
+        <v>404963.58</v>
       </c>
       <c r="D5" t="n">
-        <v>1867.28</v>
+        <v>1793.18</v>
       </c>
       <c r="E5" t="n">
-        <v>1138.3</v>
+        <v>1012.41</v>
       </c>
       <c r="F5" t="n">
-        <v>728.97</v>
+        <v>780.77</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>413198.68</v>
+        <v>404182.81</v>
       </c>
       <c r="I5" t="n">
-        <v>22706.22</v>
+        <v>35801.3</v>
       </c>
       <c r="J5" t="n">
-        <v>11801.32</v>
+        <v>20817.19</v>
       </c>
       <c r="K5" t="n">
-        <v>34507.55</v>
+        <v>56618.49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>413198.68</v>
+        <v>404182.81</v>
       </c>
       <c r="D6" t="n">
-        <v>1867.28</v>
+        <v>1793.18</v>
       </c>
       <c r="E6" t="n">
-        <v>1136.3</v>
+        <v>1010.46</v>
       </c>
       <c r="F6" t="n">
-        <v>730.98</v>
+        <v>782.73</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>412467.7</v>
+        <v>403400.08</v>
       </c>
       <c r="I6" t="n">
-        <v>23842.52</v>
+        <v>36811.75</v>
       </c>
       <c r="J6" t="n">
-        <v>12532.3</v>
+        <v>21599.92</v>
       </c>
       <c r="K6" t="n">
-        <v>36374.82</v>
+        <v>58411.67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>412467.7</v>
+        <v>403400.08</v>
       </c>
       <c r="D7" t="n">
-        <v>1867.28</v>
+        <v>1793.18</v>
       </c>
       <c r="E7" t="n">
-        <v>1134.29</v>
+        <v>1008.5</v>
       </c>
       <c r="F7" t="n">
-        <v>732.99</v>
+        <v>784.6799999999999</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>411734.71</v>
+        <v>402615.4</v>
       </c>
       <c r="I7" t="n">
-        <v>24976.81</v>
+        <v>37820.25</v>
       </c>
       <c r="J7" t="n">
-        <v>13265.29</v>
+        <v>22384.6</v>
       </c>
       <c r="K7" t="n">
-        <v>38242.1</v>
+        <v>60204.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>411734.71</v>
+        <v>402615.4</v>
       </c>
       <c r="D8" t="n">
-        <v>1867.28</v>
+        <v>1793.18</v>
       </c>
       <c r="E8" t="n">
-        <v>1132.27</v>
+        <v>1006.54</v>
       </c>
       <c r="F8" t="n">
-        <v>735.01</v>
+        <v>786.65</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>410999.7</v>
+        <v>401828.75</v>
       </c>
       <c r="I8" t="n">
-        <v>26109.08</v>
+        <v>38826.79</v>
       </c>
       <c r="J8" t="n">
-        <v>14000.3</v>
+        <v>23171.25</v>
       </c>
       <c r="K8" t="n">
-        <v>40109.37</v>
+        <v>61998.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>410999.7</v>
+        <v>401828.75</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.28</v>
+        <v>1793.18</v>
       </c>
       <c r="E9" t="n">
-        <v>1130.25</v>
+        <v>1004.57</v>
       </c>
       <c r="F9" t="n">
-        <v>737.03</v>
+        <v>788.61</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>410262.67</v>
+        <v>401040.14</v>
       </c>
       <c r="I9" t="n">
-        <v>27239.33</v>
+        <v>39831.36</v>
       </c>
       <c r="J9" t="n">
-        <v>14737.33</v>
+        <v>23959.86</v>
       </c>
       <c r="K9" t="n">
-        <v>41976.65</v>
+        <v>63791.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>410262.67</v>
+        <v>401040.14</v>
       </c>
       <c r="D10" t="n">
-        <v>1867.28</v>
+        <v>1793.18</v>
       </c>
       <c r="E10" t="n">
-        <v>1128.22</v>
+        <v>1002.6</v>
       </c>
       <c r="F10" t="n">
-        <v>739.05</v>
+        <v>790.58</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>409523.62</v>
+        <v>400249.56</v>
       </c>
       <c r="I10" t="n">
-        <v>28367.55</v>
+        <v>40833.96</v>
       </c>
       <c r="J10" t="n">
-        <v>15476.38</v>
+        <v>24750.44</v>
       </c>
       <c r="K10" t="n">
-        <v>43843.93</v>
+        <v>65584.41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>409523.62</v>
+        <v>400249.56</v>
       </c>
       <c r="D11" t="n">
-        <v>1867.28</v>
+        <v>1793.18</v>
       </c>
       <c r="E11" t="n">
-        <v>1126.19</v>
+        <v>1000.62</v>
       </c>
       <c r="F11" t="n">
-        <v>741.09</v>
+        <v>792.5599999999999</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>408782.54</v>
+        <v>399457</v>
       </c>
       <c r="I11" t="n">
-        <v>29493.74</v>
+        <v>41834.59</v>
       </c>
       <c r="J11" t="n">
-        <v>16217.46</v>
+        <v>25543</v>
       </c>
       <c r="K11" t="n">
-        <v>45711.2</v>
+        <v>67377.59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>408782.54</v>
+        <v>399457</v>
       </c>
       <c r="D12" t="n">
-        <v>1867.28</v>
+        <v>1793.18</v>
       </c>
       <c r="E12" t="n">
-        <v>1124.15</v>
+        <v>998.64</v>
       </c>
       <c r="F12" t="n">
-        <v>743.12</v>
+        <v>794.54</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>408039.41</v>
+        <v>398662.45</v>
       </c>
       <c r="I12" t="n">
-        <v>30617.89</v>
+        <v>42833.23</v>
       </c>
       <c r="J12" t="n">
-        <v>16960.59</v>
+        <v>26337.55</v>
       </c>
       <c r="K12" t="n">
-        <v>47578.48</v>
+        <v>69170.78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>408039.41</v>
+        <v>398662.45</v>
       </c>
       <c r="D13" t="n">
-        <v>1867.28</v>
+        <v>1793.18</v>
       </c>
       <c r="E13" t="n">
-        <v>1122.11</v>
+        <v>996.66</v>
       </c>
       <c r="F13" t="n">
-        <v>745.17</v>
+        <v>796.53</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>407294.24</v>
+        <v>397865.93</v>
       </c>
       <c r="I13" t="n">
-        <v>31740</v>
+        <v>43829.89</v>
       </c>
       <c r="J13" t="n">
-        <v>17705.76</v>
+        <v>27134.07</v>
       </c>
       <c r="K13" t="n">
-        <v>49445.75</v>
+        <v>70963.96000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>407294.24</v>
+        <v>397865.93</v>
       </c>
       <c r="D14" t="n">
-        <v>1624.71</v>
+        <v>1793.18</v>
       </c>
       <c r="E14" t="n">
-        <v>746.71</v>
+        <v>994.66</v>
       </c>
       <c r="F14" t="n">
-        <v>878</v>
+        <v>798.52</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>406416.24</v>
+        <v>397067.41</v>
       </c>
       <c r="I14" t="n">
-        <v>32486.7</v>
+        <v>44824.55</v>
       </c>
       <c r="J14" t="n">
-        <v>18583.76</v>
+        <v>27932.59</v>
       </c>
       <c r="K14" t="n">
-        <v>51070.46</v>
+        <v>72757.14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>406416.24</v>
+        <v>397067.41</v>
       </c>
       <c r="D15" t="n">
-        <v>1624.71</v>
+        <v>1793.18</v>
       </c>
       <c r="E15" t="n">
-        <v>745.1</v>
+        <v>992.67</v>
       </c>
       <c r="F15" t="n">
-        <v>879.61</v>
+        <v>800.52</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>405536.64</v>
+        <v>396266.89</v>
       </c>
       <c r="I15" t="n">
-        <v>33231.8</v>
+        <v>45817.22</v>
       </c>
       <c r="J15" t="n">
-        <v>19463.36</v>
+        <v>28733.11</v>
       </c>
       <c r="K15" t="n">
-        <v>52695.16</v>
+        <v>74550.33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>405536.64</v>
+        <v>396266.89</v>
       </c>
       <c r="D16" t="n">
-        <v>1624.71</v>
+        <v>1793.18</v>
       </c>
       <c r="E16" t="n">
-        <v>743.48</v>
+        <v>990.67</v>
       </c>
       <c r="F16" t="n">
-        <v>881.22</v>
+        <v>802.52</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>404655.41</v>
+        <v>395464.38</v>
       </c>
       <c r="I16" t="n">
-        <v>33975.28</v>
+        <v>46807.89</v>
       </c>
       <c r="J16" t="n">
-        <v>20344.59</v>
+        <v>29535.62</v>
       </c>
       <c r="K16" t="n">
-        <v>54319.87</v>
+        <v>76343.50999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>404655.41</v>
+        <v>395464.38</v>
       </c>
       <c r="D17" t="n">
-        <v>1624.71</v>
+        <v>1793.18</v>
       </c>
       <c r="E17" t="n">
-        <v>741.87</v>
+        <v>988.66</v>
       </c>
       <c r="F17" t="n">
-        <v>882.84</v>
+        <v>804.52</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>403772.58</v>
+        <v>394659.85</v>
       </c>
       <c r="I17" t="n">
-        <v>34717.15</v>
+        <v>47796.55</v>
       </c>
       <c r="J17" t="n">
-        <v>21227.42</v>
+        <v>30340.15</v>
       </c>
       <c r="K17" t="n">
-        <v>55944.58</v>
+        <v>78136.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>403772.58</v>
+        <v>394659.85</v>
       </c>
       <c r="D18" t="n">
-        <v>1624.71</v>
+        <v>1793.18</v>
       </c>
       <c r="E18" t="n">
-        <v>740.25</v>
+        <v>986.65</v>
       </c>
       <c r="F18" t="n">
-        <v>884.46</v>
+        <v>806.53</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>402888.12</v>
+        <v>393853.32</v>
       </c>
       <c r="I18" t="n">
-        <v>35457.4</v>
+        <v>48783.2</v>
       </c>
       <c r="J18" t="n">
-        <v>22111.88</v>
+        <v>31146.68</v>
       </c>
       <c r="K18" t="n">
-        <v>57569.28</v>
+        <v>79929.88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>402888.12</v>
+        <v>393853.32</v>
       </c>
       <c r="D19" t="n">
-        <v>1624.71</v>
+        <v>1793.18</v>
       </c>
       <c r="E19" t="n">
-        <v>738.63</v>
+        <v>984.63</v>
       </c>
       <c r="F19" t="n">
-        <v>886.08</v>
+        <v>808.55</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>402002.04</v>
+        <v>393044.77</v>
       </c>
       <c r="I19" t="n">
-        <v>36196.03</v>
+        <v>49767.83</v>
       </c>
       <c r="J19" t="n">
-        <v>22997.96</v>
+        <v>31955.23</v>
       </c>
       <c r="K19" t="n">
-        <v>59193.99</v>
+        <v>81723.06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>402002.04</v>
+        <v>393044.77</v>
       </c>
       <c r="D20" t="n">
-        <v>1624.71</v>
+        <v>1793.18</v>
       </c>
       <c r="E20" t="n">
-        <v>737</v>
+        <v>982.61</v>
       </c>
       <c r="F20" t="n">
-        <v>887.7</v>
+        <v>810.5700000000001</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>401114.34</v>
+        <v>392234.2</v>
       </c>
       <c r="I20" t="n">
-        <v>36933.03</v>
+        <v>50750.44</v>
       </c>
       <c r="J20" t="n">
-        <v>23885.66</v>
+        <v>32765.8</v>
       </c>
       <c r="K20" t="n">
-        <v>60818.69</v>
+        <v>83516.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>401114.34</v>
+        <v>392234.2</v>
       </c>
       <c r="D21" t="n">
-        <v>1624.71</v>
+        <v>1793.18</v>
       </c>
       <c r="E21" t="n">
-        <v>735.38</v>
+        <v>980.59</v>
       </c>
       <c r="F21" t="n">
-        <v>889.33</v>
+        <v>812.6</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>400225.01</v>
+        <v>391421.6</v>
       </c>
       <c r="I21" t="n">
-        <v>37668.41</v>
+        <v>51731.03</v>
       </c>
       <c r="J21" t="n">
-        <v>24774.99</v>
+        <v>33578.4</v>
       </c>
       <c r="K21" t="n">
-        <v>62443.4</v>
+        <v>85309.42999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>400225.01</v>
+        <v>391421.6</v>
       </c>
       <c r="D22" t="n">
-        <v>1624.71</v>
+        <v>1793.18</v>
       </c>
       <c r="E22" t="n">
-        <v>733.75</v>
+        <v>978.55</v>
       </c>
       <c r="F22" t="n">
-        <v>890.96</v>
+        <v>814.63</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>399334.05</v>
+        <v>390606.97</v>
       </c>
       <c r="I22" t="n">
-        <v>38402.16</v>
+        <v>52709.58</v>
       </c>
       <c r="J22" t="n">
-        <v>25665.95</v>
+        <v>34393.03</v>
       </c>
       <c r="K22" t="n">
-        <v>64068.1</v>
+        <v>87102.62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>399334.05</v>
+        <v>390606.97</v>
       </c>
       <c r="D23" t="n">
-        <v>1624.71</v>
+        <v>1793.18</v>
       </c>
       <c r="E23" t="n">
-        <v>732.11</v>
+        <v>976.52</v>
       </c>
       <c r="F23" t="n">
-        <v>892.59</v>
+        <v>816.67</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>398441.46</v>
+        <v>389790.3</v>
       </c>
       <c r="I23" t="n">
-        <v>39134.27</v>
+        <v>53686.1</v>
       </c>
       <c r="J23" t="n">
-        <v>26558.54</v>
+        <v>35209.7</v>
       </c>
       <c r="K23" t="n">
-        <v>65692.81</v>
+        <v>88895.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>398441.46</v>
+        <v>389790.3</v>
       </c>
       <c r="D24" t="n">
-        <v>1624.71</v>
+        <v>1793.18</v>
       </c>
       <c r="E24" t="n">
-        <v>730.48</v>
+        <v>974.48</v>
       </c>
       <c r="F24" t="n">
-        <v>894.23</v>
+        <v>818.71</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>397547.23</v>
+        <v>388971.59</v>
       </c>
       <c r="I24" t="n">
-        <v>39864.75</v>
+        <v>54660.58</v>
       </c>
       <c r="J24" t="n">
-        <v>27452.77</v>
+        <v>36028.41</v>
       </c>
       <c r="K24" t="n">
-        <v>67317.50999999999</v>
+        <v>90688.98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>397547.23</v>
+        <v>388971.59</v>
       </c>
       <c r="D25" t="n">
-        <v>1624.71</v>
+        <v>1793.18</v>
       </c>
       <c r="E25" t="n">
-        <v>728.84</v>
+        <v>972.4299999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>895.87</v>
+        <v>820.75</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>396651.36</v>
+        <v>388150.84</v>
       </c>
       <c r="I25" t="n">
-        <v>40593.58</v>
+        <v>55633.01</v>
       </c>
       <c r="J25" t="n">
-        <v>28348.64</v>
+        <v>36849.16</v>
       </c>
       <c r="K25" t="n">
-        <v>68942.22</v>
+        <v>92482.17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>49</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>388150.84</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1793.18</v>
+      </c>
+      <c r="E26" t="n">
+        <v>970.38</v>
+      </c>
+      <c r="F26" t="n">
+        <v>822.8099999999999</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>387328.03</v>
+      </c>
+      <c r="I26" t="n">
+        <v>56603.38</v>
+      </c>
+      <c r="J26" t="n">
+        <v>37671.97</v>
+      </c>
+      <c r="K26" t="n">
+        <v>94275.35000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>50</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>387328.03</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1793.18</v>
+      </c>
+      <c r="E27" t="n">
+        <v>968.3200000000001</v>
+      </c>
+      <c r="F27" t="n">
+        <v>824.86</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>386503.17</v>
+      </c>
+      <c r="I27" t="n">
+        <v>57571.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>38496.83</v>
+      </c>
+      <c r="K27" t="n">
+        <v>96068.53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>51</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>386503.17</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1793.18</v>
+      </c>
+      <c r="E28" t="n">
+        <v>966.26</v>
+      </c>
+      <c r="F28" t="n">
+        <v>826.9299999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>385676.24</v>
+      </c>
+      <c r="I28" t="n">
+        <v>58537.96</v>
+      </c>
+      <c r="J28" t="n">
+        <v>39323.76</v>
+      </c>
+      <c r="K28" t="n">
+        <v>97861.72</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>385676.24</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1793.18</v>
+      </c>
+      <c r="E29" t="n">
+        <v>964.1900000000001</v>
+      </c>
+      <c r="F29" t="n">
+        <v>828.99</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>384847.25</v>
+      </c>
+      <c r="I29" t="n">
+        <v>59502.15</v>
+      </c>
+      <c r="J29" t="n">
+        <v>40152.75</v>
+      </c>
+      <c r="K29" t="n">
+        <v>99654.89999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>384847.25</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1793.18</v>
+      </c>
+      <c r="E30" t="n">
+        <v>962.12</v>
+      </c>
+      <c r="F30" t="n">
+        <v>831.0700000000001</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>384016.18</v>
+      </c>
+      <c r="I30" t="n">
+        <v>60464.27</v>
+      </c>
+      <c r="J30" t="n">
+        <v>40983.82</v>
+      </c>
+      <c r="K30" t="n">
+        <v>101448.09</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>384016.18</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1793.18</v>
+      </c>
+      <c r="E31" t="n">
+        <v>960.04</v>
+      </c>
+      <c r="F31" t="n">
+        <v>833.14</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>383183.04</v>
+      </c>
+      <c r="I31" t="n">
+        <v>61424.31</v>
+      </c>
+      <c r="J31" t="n">
+        <v>41816.96</v>
+      </c>
+      <c r="K31" t="n">
+        <v>103241.27</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>383183.04</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1793.18</v>
+      </c>
+      <c r="E32" t="n">
+        <v>957.96</v>
+      </c>
+      <c r="F32" t="n">
+        <v>835.23</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>382347.81</v>
+      </c>
+      <c r="I32" t="n">
+        <v>62382.27</v>
+      </c>
+      <c r="J32" t="n">
+        <v>42652.19</v>
+      </c>
+      <c r="K32" t="n">
+        <v>105034.45</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>56</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>382347.81</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1793.18</v>
+      </c>
+      <c r="E33" t="n">
+        <v>955.87</v>
+      </c>
+      <c r="F33" t="n">
+        <v>837.3099999999999</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>381510.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>63338.14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>43489.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>106827.64</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>381510.5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1793.18</v>
+      </c>
+      <c r="E34" t="n">
+        <v>953.78</v>
+      </c>
+      <c r="F34" t="n">
+        <v>839.41</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>380671.09</v>
+      </c>
+      <c r="I34" t="n">
+        <v>64291.91</v>
+      </c>
+      <c r="J34" t="n">
+        <v>44328.91</v>
+      </c>
+      <c r="K34" t="n">
+        <v>108620.82</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>380671.09</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1793.18</v>
+      </c>
+      <c r="E35" t="n">
+        <v>951.6799999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>841.51</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>379829.58</v>
+      </c>
+      <c r="I35" t="n">
+        <v>65243.59</v>
+      </c>
+      <c r="J35" t="n">
+        <v>45170.42</v>
+      </c>
+      <c r="K35" t="n">
+        <v>110414.01</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>379829.58</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1793.18</v>
+      </c>
+      <c r="E36" t="n">
+        <v>949.5700000000001</v>
+      </c>
+      <c r="F36" t="n">
+        <v>843.61</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>378985.98</v>
+      </c>
+      <c r="I36" t="n">
+        <v>66193.16</v>
+      </c>
+      <c r="J36" t="n">
+        <v>46014.02</v>
+      </c>
+      <c r="K36" t="n">
+        <v>112207.19</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>378985.98</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1793.18</v>
+      </c>
+      <c r="E37" t="n">
+        <v>947.46</v>
+      </c>
+      <c r="F37" t="n">
+        <v>845.72</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>378140.26</v>
+      </c>
+      <c r="I37" t="n">
+        <v>67140.63</v>
+      </c>
+      <c r="J37" t="n">
+        <v>46859.74</v>
+      </c>
+      <c r="K37" t="n">
+        <v>114000.37</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +3100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2327,842 +3167,1262 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="C2" t="n">
-        <v>417897.67</v>
+        <v>407294.24</v>
       </c>
       <c r="D2" t="n">
-        <v>1604.42</v>
+        <v>1771.6</v>
       </c>
       <c r="E2" t="n">
-        <v>731.3200000000001</v>
+        <v>984.29</v>
       </c>
       <c r="F2" t="n">
-        <v>2673.1</v>
+        <v>787.3099999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>415224.57</v>
+        <v>406506.94</v>
       </c>
       <c r="I2" t="n">
-        <v>18867.43</v>
+        <v>32724.29</v>
       </c>
       <c r="J2" t="n">
-        <v>9775.43</v>
+        <v>18493.06</v>
       </c>
       <c r="K2" t="n">
-        <v>28642.87</v>
+        <v>51217.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="C3" t="n">
-        <v>415224.57</v>
+        <v>406506.94</v>
       </c>
       <c r="D3" t="n">
-        <v>1604.42</v>
+        <v>1771.6</v>
       </c>
       <c r="E3" t="n">
-        <v>726.64</v>
+        <v>982.39</v>
       </c>
       <c r="F3" t="n">
-        <v>877.78</v>
+        <v>789.21</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>414346.79</v>
+        <v>405717.73</v>
       </c>
       <c r="I3" t="n">
-        <v>19594.07</v>
+        <v>33706.68</v>
       </c>
       <c r="J3" t="n">
-        <v>10653.21</v>
+        <v>19282.27</v>
       </c>
       <c r="K3" t="n">
-        <v>30247.29</v>
+        <v>52988.96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="C4" t="n">
-        <v>414346.79</v>
+        <v>405717.73</v>
       </c>
       <c r="D4" t="n">
-        <v>1604.42</v>
+        <v>1771.6</v>
       </c>
       <c r="E4" t="n">
-        <v>725.11</v>
+        <v>980.48</v>
       </c>
       <c r="F4" t="n">
-        <v>879.3099999999999</v>
+        <v>791.12</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>413467.47</v>
+        <v>404926.61</v>
       </c>
       <c r="I4" t="n">
-        <v>20319.18</v>
+        <v>34687.17</v>
       </c>
       <c r="J4" t="n">
-        <v>11532.53</v>
+        <v>20073.39</v>
       </c>
       <c r="K4" t="n">
-        <v>31851.71</v>
+        <v>54760.56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="C5" t="n">
-        <v>413467.47</v>
+        <v>404926.61</v>
       </c>
       <c r="D5" t="n">
-        <v>1604.42</v>
+        <v>1771.6</v>
       </c>
       <c r="E5" t="n">
-        <v>723.5700000000001</v>
+        <v>978.5700000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>880.85</v>
+        <v>793.03</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>412586.62</v>
+        <v>404133.58</v>
       </c>
       <c r="I5" t="n">
-        <v>21042.75</v>
+        <v>35665.74</v>
       </c>
       <c r="J5" t="n">
-        <v>12413.38</v>
+        <v>20866.42</v>
       </c>
       <c r="K5" t="n">
-        <v>33456.13</v>
+        <v>56532.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="C6" t="n">
-        <v>412586.62</v>
+        <v>404133.58</v>
       </c>
       <c r="D6" t="n">
-        <v>1604.42</v>
+        <v>1771.6</v>
       </c>
       <c r="E6" t="n">
-        <v>722.03</v>
+        <v>976.66</v>
       </c>
       <c r="F6" t="n">
-        <v>882.39</v>
+        <v>794.95</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>411704.22</v>
+        <v>403338.63</v>
       </c>
       <c r="I6" t="n">
-        <v>21764.78</v>
+        <v>36642.4</v>
       </c>
       <c r="J6" t="n">
-        <v>13295.78</v>
+        <v>21661.37</v>
       </c>
       <c r="K6" t="n">
-        <v>35060.55</v>
+        <v>58303.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="C7" t="n">
-        <v>411704.22</v>
+        <v>403338.63</v>
       </c>
       <c r="D7" t="n">
-        <v>1604.42</v>
+        <v>1771.6</v>
       </c>
       <c r="E7" t="n">
-        <v>720.48</v>
+        <v>974.74</v>
       </c>
       <c r="F7" t="n">
-        <v>883.9400000000001</v>
+        <v>796.87</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>410820.28</v>
+        <v>402541.77</v>
       </c>
       <c r="I7" t="n">
-        <v>22485.26</v>
+        <v>37617.13</v>
       </c>
       <c r="J7" t="n">
-        <v>14179.72</v>
+        <v>22458.23</v>
       </c>
       <c r="K7" t="n">
-        <v>36664.97</v>
+        <v>60075.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="C8" t="n">
-        <v>410820.28</v>
+        <v>402541.77</v>
       </c>
       <c r="D8" t="n">
-        <v>1604.42</v>
+        <v>1771.6</v>
       </c>
       <c r="E8" t="n">
-        <v>718.9400000000001</v>
+        <v>972.8099999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>885.49</v>
+        <v>798.79</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>409934.8</v>
+        <v>401742.97</v>
       </c>
       <c r="I8" t="n">
-        <v>23204.19</v>
+        <v>38589.94</v>
       </c>
       <c r="J8" t="n">
-        <v>15065.2</v>
+        <v>23257.03</v>
       </c>
       <c r="K8" t="n">
-        <v>38269.39</v>
+        <v>61846.97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="C9" t="n">
-        <v>409934.8</v>
+        <v>401742.97</v>
       </c>
       <c r="D9" t="n">
-        <v>1604.42</v>
+        <v>1771.6</v>
       </c>
       <c r="E9" t="n">
-        <v>717.39</v>
+        <v>970.88</v>
       </c>
       <c r="F9" t="n">
-        <v>887.04</v>
+        <v>800.72</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>409047.76</v>
+        <v>400942.25</v>
       </c>
       <c r="I9" t="n">
-        <v>23921.58</v>
+        <v>39560.82</v>
       </c>
       <c r="J9" t="n">
-        <v>15952.24</v>
+        <v>24057.75</v>
       </c>
       <c r="K9" t="n">
-        <v>39873.82</v>
+        <v>63618.57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="C10" t="n">
-        <v>409047.76</v>
+        <v>400942.25</v>
       </c>
       <c r="D10" t="n">
-        <v>1604.42</v>
+        <v>1771.6</v>
       </c>
       <c r="E10" t="n">
-        <v>715.83</v>
+        <v>968.9400000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>888.59</v>
+        <v>802.66</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>408159.18</v>
+        <v>400139.59</v>
       </c>
       <c r="I10" t="n">
-        <v>24637.41</v>
+        <v>40529.76</v>
       </c>
       <c r="J10" t="n">
-        <v>16840.82</v>
+        <v>24860.41</v>
       </c>
       <c r="K10" t="n">
-        <v>41478.24</v>
+        <v>65390.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="C11" t="n">
-        <v>408159.18</v>
+        <v>400139.59</v>
       </c>
       <c r="D11" t="n">
-        <v>1604.42</v>
+        <v>1771.6</v>
       </c>
       <c r="E11" t="n">
-        <v>714.28</v>
+        <v>967</v>
       </c>
       <c r="F11" t="n">
-        <v>890.14</v>
+        <v>804.6</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>407269.03</v>
+        <v>399334.99</v>
       </c>
       <c r="I11" t="n">
-        <v>25351.69</v>
+        <v>41496.77</v>
       </c>
       <c r="J11" t="n">
-        <v>17730.97</v>
+        <v>25665.01</v>
       </c>
       <c r="K11" t="n">
-        <v>43082.66</v>
+        <v>67161.78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="C12" t="n">
-        <v>407269.03</v>
+        <v>399334.99</v>
       </c>
       <c r="D12" t="n">
-        <v>1604.42</v>
+        <v>1771.6</v>
       </c>
       <c r="E12" t="n">
-        <v>712.72</v>
+        <v>965.0599999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>891.7</v>
+        <v>806.54</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>406377.33</v>
+        <v>398528.45</v>
       </c>
       <c r="I12" t="n">
-        <v>26064.41</v>
+        <v>42461.83</v>
       </c>
       <c r="J12" t="n">
-        <v>18622.67</v>
+        <v>26471.55</v>
       </c>
       <c r="K12" t="n">
-        <v>44687.08</v>
+        <v>68933.38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="C13" t="n">
-        <v>406377.33</v>
+        <v>398528.45</v>
       </c>
       <c r="D13" t="n">
-        <v>1604.42</v>
+        <v>1771.6</v>
       </c>
       <c r="E13" t="n">
-        <v>711.16</v>
+        <v>963.11</v>
       </c>
       <c r="F13" t="n">
-        <v>893.26</v>
+        <v>808.49</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>405484.07</v>
+        <v>397719.96</v>
       </c>
       <c r="I13" t="n">
-        <v>26775.57</v>
+        <v>43424.94</v>
       </c>
       <c r="J13" t="n">
-        <v>19515.93</v>
+        <v>27280.04</v>
       </c>
       <c r="K13" t="n">
-        <v>46291.5</v>
+        <v>70704.98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C14" t="n">
-        <v>405484.07</v>
+        <v>397719.96</v>
       </c>
       <c r="D14" t="n">
-        <v>1742.39</v>
+        <v>1771.6</v>
       </c>
       <c r="E14" t="n">
-        <v>946.13</v>
+        <v>961.16</v>
       </c>
       <c r="F14" t="n">
-        <v>796.26</v>
+        <v>810.45</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>404687.81</v>
+        <v>396909.51</v>
       </c>
       <c r="I14" t="n">
-        <v>27721.7</v>
+        <v>44386.1</v>
       </c>
       <c r="J14" t="n">
-        <v>20312.19</v>
+        <v>28090.49</v>
       </c>
       <c r="K14" t="n">
-        <v>48033.89</v>
+        <v>72476.58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C15" t="n">
-        <v>404687.81</v>
+        <v>396909.51</v>
       </c>
       <c r="D15" t="n">
-        <v>1742.39</v>
+        <v>1771.6</v>
       </c>
       <c r="E15" t="n">
-        <v>944.27</v>
+        <v>959.2</v>
       </c>
       <c r="F15" t="n">
-        <v>798.12</v>
+        <v>812.4</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>403889.69</v>
+        <v>396097.11</v>
       </c>
       <c r="I15" t="n">
-        <v>28665.97</v>
+        <v>45345.29</v>
       </c>
       <c r="J15" t="n">
-        <v>21110.31</v>
+        <v>28902.89</v>
       </c>
       <c r="K15" t="n">
-        <v>49776.28</v>
+        <v>74248.17999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C16" t="n">
-        <v>403889.69</v>
+        <v>396097.11</v>
       </c>
       <c r="D16" t="n">
-        <v>1742.39</v>
+        <v>1771.6</v>
       </c>
       <c r="E16" t="n">
-        <v>942.41</v>
+        <v>957.23</v>
       </c>
       <c r="F16" t="n">
-        <v>799.98</v>
+        <v>814.37</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>403089.71</v>
+        <v>395282.74</v>
       </c>
       <c r="I16" t="n">
-        <v>29608.38</v>
+        <v>46302.53</v>
       </c>
       <c r="J16" t="n">
-        <v>21910.29</v>
+        <v>29717.26</v>
       </c>
       <c r="K16" t="n">
-        <v>51518.67</v>
+        <v>76019.78999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C17" t="n">
-        <v>403089.71</v>
+        <v>395282.74</v>
       </c>
       <c r="D17" t="n">
-        <v>1742.39</v>
+        <v>1771.6</v>
       </c>
       <c r="E17" t="n">
-        <v>940.54</v>
+        <v>955.27</v>
       </c>
       <c r="F17" t="n">
-        <v>801.85</v>
+        <v>816.34</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>402287.86</v>
+        <v>394466.41</v>
       </c>
       <c r="I17" t="n">
-        <v>30548.93</v>
+        <v>47257.79</v>
       </c>
       <c r="J17" t="n">
-        <v>22712.14</v>
+        <v>30533.59</v>
       </c>
       <c r="K17" t="n">
-        <v>53261.06</v>
+        <v>77791.39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C18" t="n">
-        <v>402287.86</v>
+        <v>394466.41</v>
       </c>
       <c r="D18" t="n">
-        <v>1742.39</v>
+        <v>1771.6</v>
       </c>
       <c r="E18" t="n">
-        <v>938.67</v>
+        <v>953.29</v>
       </c>
       <c r="F18" t="n">
-        <v>803.72</v>
+        <v>818.3099999999999</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>401484.15</v>
+        <v>393648.1</v>
       </c>
       <c r="I18" t="n">
-        <v>31487.6</v>
+        <v>48211.09</v>
       </c>
       <c r="J18" t="n">
-        <v>23515.85</v>
+        <v>31351.9</v>
       </c>
       <c r="K18" t="n">
-        <v>55003.45</v>
+        <v>79562.99000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C19" t="n">
-        <v>401484.15</v>
+        <v>393648.1</v>
       </c>
       <c r="D19" t="n">
-        <v>1742.39</v>
+        <v>1771.6</v>
       </c>
       <c r="E19" t="n">
-        <v>936.8</v>
+        <v>951.3200000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>805.59</v>
+        <v>820.29</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>400678.55</v>
+        <v>392827.81</v>
       </c>
       <c r="I19" t="n">
-        <v>32424.39</v>
+        <v>49162.4</v>
       </c>
       <c r="J19" t="n">
-        <v>24321.45</v>
+        <v>32172.19</v>
       </c>
       <c r="K19" t="n">
-        <v>56745.84</v>
+        <v>81334.59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C20" t="n">
-        <v>400678.55</v>
+        <v>392827.81</v>
       </c>
       <c r="D20" t="n">
-        <v>1742.39</v>
+        <v>1771.6</v>
       </c>
       <c r="E20" t="n">
-        <v>934.92</v>
+        <v>949.33</v>
       </c>
       <c r="F20" t="n">
-        <v>807.47</v>
+        <v>822.27</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>399871.08</v>
+        <v>392005.54</v>
       </c>
       <c r="I20" t="n">
-        <v>33359.31</v>
+        <v>50111.74</v>
       </c>
       <c r="J20" t="n">
-        <v>25128.92</v>
+        <v>32994.46</v>
       </c>
       <c r="K20" t="n">
-        <v>58488.23</v>
+        <v>83106.19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C21" t="n">
-        <v>399871.08</v>
+        <v>392005.54</v>
       </c>
       <c r="D21" t="n">
-        <v>1742.39</v>
+        <v>1771.6</v>
       </c>
       <c r="E21" t="n">
-        <v>933.03</v>
+        <v>947.35</v>
       </c>
       <c r="F21" t="n">
-        <v>809.36</v>
+        <v>824.26</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>399061.72</v>
+        <v>391181.29</v>
       </c>
       <c r="I21" t="n">
-        <v>34292.34</v>
+        <v>51059.09</v>
       </c>
       <c r="J21" t="n">
-        <v>25938.28</v>
+        <v>33818.71</v>
       </c>
       <c r="K21" t="n">
-        <v>60230.62</v>
+        <v>84877.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C22" t="n">
-        <v>399061.72</v>
+        <v>391181.29</v>
       </c>
       <c r="D22" t="n">
-        <v>1742.39</v>
+        <v>1771.6</v>
       </c>
       <c r="E22" t="n">
-        <v>931.14</v>
+        <v>945.35</v>
       </c>
       <c r="F22" t="n">
-        <v>811.25</v>
+        <v>826.25</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>398250.48</v>
+        <v>390355.04</v>
       </c>
       <c r="I22" t="n">
-        <v>35223.49</v>
+        <v>52004.44</v>
       </c>
       <c r="J22" t="n">
-        <v>26749.52</v>
+        <v>34644.96</v>
       </c>
       <c r="K22" t="n">
-        <v>61973.01</v>
+        <v>86649.39999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C23" t="n">
-        <v>398250.48</v>
+        <v>390355.04</v>
       </c>
       <c r="D23" t="n">
-        <v>1742.39</v>
+        <v>1771.6</v>
       </c>
       <c r="E23" t="n">
-        <v>929.25</v>
+        <v>943.36</v>
       </c>
       <c r="F23" t="n">
-        <v>813.14</v>
+        <v>828.24</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>397437.34</v>
+        <v>389526.8</v>
       </c>
       <c r="I23" t="n">
-        <v>36152.74</v>
+        <v>52947.8</v>
       </c>
       <c r="J23" t="n">
-        <v>27562.66</v>
+        <v>35473.2</v>
       </c>
       <c r="K23" t="n">
-        <v>63715.4</v>
+        <v>88421</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C24" t="n">
-        <v>397437.34</v>
+        <v>389526.8</v>
       </c>
       <c r="D24" t="n">
-        <v>1742.39</v>
+        <v>1771.6</v>
       </c>
       <c r="E24" t="n">
-        <v>927.35</v>
+        <v>941.36</v>
       </c>
       <c r="F24" t="n">
-        <v>815.04</v>
+        <v>830.25</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>396622.3</v>
+        <v>388696.55</v>
       </c>
       <c r="I24" t="n">
-        <v>37080.09</v>
+        <v>53889.15</v>
       </c>
       <c r="J24" t="n">
-        <v>28377.7</v>
+        <v>36303.45</v>
       </c>
       <c r="K24" t="n">
-        <v>65457.79</v>
+        <v>90192.60000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C25" t="n">
-        <v>396622.3</v>
+        <v>388696.55</v>
       </c>
       <c r="D25" t="n">
-        <v>1742.39</v>
+        <v>1771.6</v>
       </c>
       <c r="E25" t="n">
-        <v>925.45</v>
+        <v>939.35</v>
       </c>
       <c r="F25" t="n">
-        <v>816.9400000000001</v>
+        <v>832.25</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>395805.36</v>
+        <v>387864.3</v>
       </c>
       <c r="I25" t="n">
-        <v>38005.54</v>
+        <v>54828.5</v>
       </c>
       <c r="J25" t="n">
-        <v>29194.64</v>
+        <v>37135.7</v>
       </c>
       <c r="K25" t="n">
-        <v>67200.17999999999</v>
+        <v>91964.21000000001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>49</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>387864.3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1771.6</v>
+      </c>
+      <c r="E26" t="n">
+        <v>937.34</v>
+      </c>
+      <c r="F26" t="n">
+        <v>834.26</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>387030.04</v>
+      </c>
+      <c r="I26" t="n">
+        <v>55765.84</v>
+      </c>
+      <c r="J26" t="n">
+        <v>37969.96</v>
+      </c>
+      <c r="K26" t="n">
+        <v>93735.81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>50</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C27" t="n">
+        <v>387030.04</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1771.6</v>
+      </c>
+      <c r="E27" t="n">
+        <v>935.3200000000001</v>
+      </c>
+      <c r="F27" t="n">
+        <v>836.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>386193.76</v>
+      </c>
+      <c r="I27" t="n">
+        <v>56701.17</v>
+      </c>
+      <c r="J27" t="n">
+        <v>38806.24</v>
+      </c>
+      <c r="K27" t="n">
+        <v>95507.41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>51</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C28" t="n">
+        <v>386193.76</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1771.6</v>
+      </c>
+      <c r="E28" t="n">
+        <v>933.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>838.3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>385355.46</v>
+      </c>
+      <c r="I28" t="n">
+        <v>57634.47</v>
+      </c>
+      <c r="J28" t="n">
+        <v>39644.54</v>
+      </c>
+      <c r="K28" t="n">
+        <v>97279.00999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>385355.46</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1771.6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>931.28</v>
+      </c>
+      <c r="F29" t="n">
+        <v>840.33</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>384515.13</v>
+      </c>
+      <c r="I29" t="n">
+        <v>58565.74</v>
+      </c>
+      <c r="J29" t="n">
+        <v>40484.87</v>
+      </c>
+      <c r="K29" t="n">
+        <v>99050.61</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C30" t="n">
+        <v>384515.13</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1771.6</v>
+      </c>
+      <c r="E30" t="n">
+        <v>929.24</v>
+      </c>
+      <c r="F30" t="n">
+        <v>842.36</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>383672.77</v>
+      </c>
+      <c r="I30" t="n">
+        <v>59494.99</v>
+      </c>
+      <c r="J30" t="n">
+        <v>41327.23</v>
+      </c>
+      <c r="K30" t="n">
+        <v>100822.22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C31" t="n">
+        <v>383672.77</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1771.6</v>
+      </c>
+      <c r="E31" t="n">
+        <v>927.21</v>
+      </c>
+      <c r="F31" t="n">
+        <v>844.39</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>382828.38</v>
+      </c>
+      <c r="I31" t="n">
+        <v>60422.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>42171.62</v>
+      </c>
+      <c r="K31" t="n">
+        <v>102593.82</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>382828.38</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1771.6</v>
+      </c>
+      <c r="E32" t="n">
+        <v>925.17</v>
+      </c>
+      <c r="F32" t="n">
+        <v>846.4299999999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>381981.95</v>
+      </c>
+      <c r="I32" t="n">
+        <v>61347.37</v>
+      </c>
+      <c r="J32" t="n">
+        <v>43018.05</v>
+      </c>
+      <c r="K32" t="n">
+        <v>104365.42</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>56</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C33" t="n">
+        <v>381981.95</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1771.6</v>
+      </c>
+      <c r="E33" t="n">
+        <v>923.12</v>
+      </c>
+      <c r="F33" t="n">
+        <v>848.48</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>381133.47</v>
+      </c>
+      <c r="I33" t="n">
+        <v>62270.49</v>
+      </c>
+      <c r="J33" t="n">
+        <v>43866.53</v>
+      </c>
+      <c r="K33" t="n">
+        <v>106137.02</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>381133.47</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1771.6</v>
+      </c>
+      <c r="E34" t="n">
+        <v>921.0700000000001</v>
+      </c>
+      <c r="F34" t="n">
+        <v>850.53</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>380282.94</v>
+      </c>
+      <c r="I34" t="n">
+        <v>63191.56</v>
+      </c>
+      <c r="J34" t="n">
+        <v>44717.06</v>
+      </c>
+      <c r="K34" t="n">
+        <v>107908.62</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C35" t="n">
+        <v>380282.94</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1771.6</v>
+      </c>
+      <c r="E35" t="n">
+        <v>919.02</v>
+      </c>
+      <c r="F35" t="n">
+        <v>852.59</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>379430.35</v>
+      </c>
+      <c r="I35" t="n">
+        <v>64110.58</v>
+      </c>
+      <c r="J35" t="n">
+        <v>45569.65</v>
+      </c>
+      <c r="K35" t="n">
+        <v>109680.23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C36" t="n">
+        <v>379430.35</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1771.6</v>
+      </c>
+      <c r="E36" t="n">
+        <v>916.96</v>
+      </c>
+      <c r="F36" t="n">
+        <v>854.65</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>378575.71</v>
+      </c>
+      <c r="I36" t="n">
+        <v>65027.53</v>
+      </c>
+      <c r="J36" t="n">
+        <v>46424.29</v>
+      </c>
+      <c r="K36" t="n">
+        <v>111451.83</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>378575.71</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1771.6</v>
+      </c>
+      <c r="E37" t="n">
+        <v>914.89</v>
+      </c>
+      <c r="F37" t="n">
+        <v>856.71</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>377719</v>
+      </c>
+      <c r="I37" t="n">
+        <v>65942.42999999999</v>
+      </c>
+      <c r="J37" t="n">
+        <v>47281</v>
+      </c>
+      <c r="K37" t="n">
+        <v>113223.43</v>
       </c>
     </row>
   </sheetData>
@@ -3176,7 +4436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3243,842 +4503,1262 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="C2" t="n">
-        <v>417897.67</v>
+        <v>407294.24</v>
       </c>
       <c r="D2" t="n">
-        <v>1604.42</v>
+        <v>1750.17</v>
       </c>
       <c r="E2" t="n">
-        <v>731.3200000000001</v>
+        <v>950.35</v>
       </c>
       <c r="F2" t="n">
-        <v>2673.1</v>
+        <v>799.8099999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>415224.57</v>
+        <v>406494.43</v>
       </c>
       <c r="I2" t="n">
-        <v>18867.43</v>
+        <v>32690.35</v>
       </c>
       <c r="J2" t="n">
-        <v>9775.43</v>
+        <v>18505.57</v>
       </c>
       <c r="K2" t="n">
-        <v>28642.87</v>
+        <v>51195.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="C3" t="n">
-        <v>415224.57</v>
+        <v>406494.43</v>
       </c>
       <c r="D3" t="n">
-        <v>1604.42</v>
+        <v>1750.17</v>
       </c>
       <c r="E3" t="n">
-        <v>726.64</v>
+        <v>948.49</v>
       </c>
       <c r="F3" t="n">
-        <v>877.78</v>
+        <v>801.6799999999999</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>414346.79</v>
+        <v>405692.75</v>
       </c>
       <c r="I3" t="n">
-        <v>19594.07</v>
+        <v>33638.84</v>
       </c>
       <c r="J3" t="n">
-        <v>10653.21</v>
+        <v>19307.25</v>
       </c>
       <c r="K3" t="n">
-        <v>30247.29</v>
+        <v>52946.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="C4" t="n">
-        <v>414346.79</v>
+        <v>405692.75</v>
       </c>
       <c r="D4" t="n">
-        <v>1604.42</v>
+        <v>1750.17</v>
       </c>
       <c r="E4" t="n">
-        <v>725.11</v>
+        <v>946.62</v>
       </c>
       <c r="F4" t="n">
-        <v>879.3099999999999</v>
+        <v>803.55</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>413467.47</v>
+        <v>404889.2</v>
       </c>
       <c r="I4" t="n">
-        <v>20319.18</v>
+        <v>34585.45</v>
       </c>
       <c r="J4" t="n">
-        <v>11532.53</v>
+        <v>20110.8</v>
       </c>
       <c r="K4" t="n">
-        <v>31851.71</v>
+        <v>54696.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="C5" t="n">
-        <v>413467.47</v>
+        <v>404889.2</v>
       </c>
       <c r="D5" t="n">
-        <v>1604.42</v>
+        <v>1750.17</v>
       </c>
       <c r="E5" t="n">
-        <v>723.5700000000001</v>
+        <v>944.74</v>
       </c>
       <c r="F5" t="n">
-        <v>880.85</v>
+        <v>805.4299999999999</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>412586.62</v>
+        <v>404083.77</v>
       </c>
       <c r="I5" t="n">
-        <v>21042.75</v>
+        <v>35530.2</v>
       </c>
       <c r="J5" t="n">
-        <v>12413.38</v>
+        <v>20916.23</v>
       </c>
       <c r="K5" t="n">
-        <v>33456.13</v>
+        <v>56446.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="C6" t="n">
-        <v>412586.62</v>
+        <v>404083.77</v>
       </c>
       <c r="D6" t="n">
-        <v>1604.42</v>
+        <v>1750.17</v>
       </c>
       <c r="E6" t="n">
-        <v>722.03</v>
+        <v>942.86</v>
       </c>
       <c r="F6" t="n">
-        <v>882.39</v>
+        <v>807.3099999999999</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>411704.22</v>
+        <v>403276.46</v>
       </c>
       <c r="I6" t="n">
-        <v>21764.78</v>
+        <v>36473.06</v>
       </c>
       <c r="J6" t="n">
-        <v>13295.78</v>
+        <v>21723.54</v>
       </c>
       <c r="K6" t="n">
-        <v>35060.55</v>
+        <v>58196.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="C7" t="n">
-        <v>411704.22</v>
+        <v>403276.46</v>
       </c>
       <c r="D7" t="n">
-        <v>1604.42</v>
+        <v>1750.17</v>
       </c>
       <c r="E7" t="n">
-        <v>720.48</v>
+        <v>940.98</v>
       </c>
       <c r="F7" t="n">
-        <v>883.9400000000001</v>
+        <v>809.1900000000001</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>410820.28</v>
+        <v>402467.27</v>
       </c>
       <c r="I7" t="n">
-        <v>22485.26</v>
+        <v>37414.04</v>
       </c>
       <c r="J7" t="n">
-        <v>14179.72</v>
+        <v>22532.73</v>
       </c>
       <c r="K7" t="n">
-        <v>36664.97</v>
+        <v>59946.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="C8" t="n">
-        <v>410820.28</v>
+        <v>402467.27</v>
       </c>
       <c r="D8" t="n">
-        <v>1604.42</v>
+        <v>1750.17</v>
       </c>
       <c r="E8" t="n">
-        <v>718.9400000000001</v>
+        <v>939.09</v>
       </c>
       <c r="F8" t="n">
-        <v>885.49</v>
+        <v>811.08</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>409934.8</v>
+        <v>401656.2</v>
       </c>
       <c r="I8" t="n">
-        <v>23204.19</v>
+        <v>38353.13</v>
       </c>
       <c r="J8" t="n">
-        <v>15065.2</v>
+        <v>23343.8</v>
       </c>
       <c r="K8" t="n">
-        <v>38269.39</v>
+        <v>61696.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="C9" t="n">
-        <v>409934.8</v>
+        <v>401656.2</v>
       </c>
       <c r="D9" t="n">
-        <v>1604.42</v>
+        <v>1750.17</v>
       </c>
       <c r="E9" t="n">
-        <v>717.39</v>
+        <v>937.2</v>
       </c>
       <c r="F9" t="n">
-        <v>887.04</v>
+        <v>812.97</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>409047.76</v>
+        <v>400843.23</v>
       </c>
       <c r="I9" t="n">
-        <v>23921.58</v>
+        <v>39290.32</v>
       </c>
       <c r="J9" t="n">
-        <v>15952.24</v>
+        <v>24156.77</v>
       </c>
       <c r="K9" t="n">
-        <v>39873.82</v>
+        <v>63447.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="C10" t="n">
-        <v>409047.76</v>
+        <v>400843.23</v>
       </c>
       <c r="D10" t="n">
-        <v>1604.42</v>
+        <v>1750.17</v>
       </c>
       <c r="E10" t="n">
-        <v>715.83</v>
+        <v>935.3</v>
       </c>
       <c r="F10" t="n">
-        <v>888.59</v>
+        <v>814.87</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>408159.18</v>
+        <v>400028.36</v>
       </c>
       <c r="I10" t="n">
-        <v>24637.41</v>
+        <v>40225.63</v>
       </c>
       <c r="J10" t="n">
-        <v>16840.82</v>
+        <v>24971.64</v>
       </c>
       <c r="K10" t="n">
-        <v>41478.24</v>
+        <v>65197.27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="C11" t="n">
-        <v>408159.18</v>
+        <v>400028.36</v>
       </c>
       <c r="D11" t="n">
-        <v>1604.42</v>
+        <v>1750.17</v>
       </c>
       <c r="E11" t="n">
-        <v>714.28</v>
+        <v>933.4</v>
       </c>
       <c r="F11" t="n">
-        <v>890.14</v>
+        <v>816.77</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>407269.03</v>
+        <v>399211.59</v>
       </c>
       <c r="I11" t="n">
-        <v>25351.69</v>
+        <v>41159.03</v>
       </c>
       <c r="J11" t="n">
-        <v>17730.97</v>
+        <v>25788.41</v>
       </c>
       <c r="K11" t="n">
-        <v>43082.66</v>
+        <v>66947.44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="C12" t="n">
-        <v>407269.03</v>
+        <v>399211.59</v>
       </c>
       <c r="D12" t="n">
-        <v>1604.42</v>
+        <v>1750.17</v>
       </c>
       <c r="E12" t="n">
-        <v>712.72</v>
+        <v>931.49</v>
       </c>
       <c r="F12" t="n">
-        <v>891.7</v>
+        <v>818.67</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>406377.33</v>
+        <v>398392.91</v>
       </c>
       <c r="I12" t="n">
-        <v>26064.41</v>
+        <v>42090.52</v>
       </c>
       <c r="J12" t="n">
-        <v>18622.67</v>
+        <v>26607.09</v>
       </c>
       <c r="K12" t="n">
-        <v>44687.08</v>
+        <v>68697.60000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="C13" t="n">
-        <v>406377.33</v>
+        <v>398392.91</v>
       </c>
       <c r="D13" t="n">
-        <v>1604.42</v>
+        <v>1750.17</v>
       </c>
       <c r="E13" t="n">
-        <v>711.16</v>
+        <v>929.58</v>
       </c>
       <c r="F13" t="n">
-        <v>893.26</v>
+        <v>820.58</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>405484.07</v>
+        <v>397572.33</v>
       </c>
       <c r="I13" t="n">
-        <v>26775.57</v>
+        <v>43020.1</v>
       </c>
       <c r="J13" t="n">
-        <v>19515.93</v>
+        <v>27427.67</v>
       </c>
       <c r="K13" t="n">
-        <v>46291.5</v>
+        <v>70447.77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="C14" t="n">
-        <v>405484.07</v>
+        <v>397572.33</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.48</v>
+        <v>1750.17</v>
       </c>
       <c r="E14" t="n">
-        <v>743.39</v>
+        <v>927.67</v>
       </c>
       <c r="F14" t="n">
-        <v>874.1</v>
+        <v>822.5</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>404609.97</v>
+        <v>396749.83</v>
       </c>
       <c r="I14" t="n">
-        <v>27518.96</v>
+        <v>43947.77</v>
       </c>
       <c r="J14" t="n">
-        <v>20390.03</v>
+        <v>28250.17</v>
       </c>
       <c r="K14" t="n">
-        <v>47908.99</v>
+        <v>72197.94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="C15" t="n">
-        <v>404609.97</v>
+        <v>396749.83</v>
       </c>
       <c r="D15" t="n">
-        <v>1617.48</v>
+        <v>1750.17</v>
       </c>
       <c r="E15" t="n">
-        <v>741.78</v>
+        <v>925.75</v>
       </c>
       <c r="F15" t="n">
-        <v>875.7</v>
+        <v>824.42</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>403734.27</v>
+        <v>395925.41</v>
       </c>
       <c r="I15" t="n">
-        <v>28260.74</v>
+        <v>44873.52</v>
       </c>
       <c r="J15" t="n">
-        <v>21265.73</v>
+        <v>29074.59</v>
       </c>
       <c r="K15" t="n">
-        <v>49526.47</v>
+        <v>73948.11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="C16" t="n">
-        <v>403734.27</v>
+        <v>395925.41</v>
       </c>
       <c r="D16" t="n">
-        <v>1617.48</v>
+        <v>1750.17</v>
       </c>
       <c r="E16" t="n">
-        <v>740.1799999999999</v>
+        <v>923.83</v>
       </c>
       <c r="F16" t="n">
-        <v>877.3099999999999</v>
+        <v>826.34</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>402856.97</v>
+        <v>395099.07</v>
       </c>
       <c r="I16" t="n">
-        <v>29000.92</v>
+        <v>45797.35</v>
       </c>
       <c r="J16" t="n">
-        <v>22143.03</v>
+        <v>29900.93</v>
       </c>
       <c r="K16" t="n">
-        <v>51143.96</v>
+        <v>75698.28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="C17" t="n">
-        <v>402856.97</v>
+        <v>395099.07</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.48</v>
+        <v>1750.17</v>
       </c>
       <c r="E17" t="n">
-        <v>738.5700000000001</v>
+        <v>921.9</v>
       </c>
       <c r="F17" t="n">
-        <v>878.91</v>
+        <v>828.27</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>401978.05</v>
+        <v>394270.8</v>
       </c>
       <c r="I17" t="n">
-        <v>29739.5</v>
+        <v>46719.24</v>
       </c>
       <c r="J17" t="n">
-        <v>23021.95</v>
+        <v>30729.2</v>
       </c>
       <c r="K17" t="n">
-        <v>52761.44</v>
+        <v>77448.45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="C18" t="n">
-        <v>401978.05</v>
+        <v>394270.8</v>
       </c>
       <c r="D18" t="n">
-        <v>1617.48</v>
+        <v>1750.17</v>
       </c>
       <c r="E18" t="n">
-        <v>736.96</v>
+        <v>919.97</v>
       </c>
       <c r="F18" t="n">
-        <v>880.52</v>
+        <v>830.2</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>401097.53</v>
+        <v>393440.6</v>
       </c>
       <c r="I18" t="n">
-        <v>30476.45</v>
+        <v>47639.21</v>
       </c>
       <c r="J18" t="n">
-        <v>23902.47</v>
+        <v>31559.4</v>
       </c>
       <c r="K18" t="n">
-        <v>54378.92</v>
+        <v>79198.61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="C19" t="n">
-        <v>401097.53</v>
+        <v>393440.6</v>
       </c>
       <c r="D19" t="n">
-        <v>1617.48</v>
+        <v>1750.17</v>
       </c>
       <c r="E19" t="n">
-        <v>735.35</v>
+        <v>918.03</v>
       </c>
       <c r="F19" t="n">
-        <v>882.14</v>
+        <v>832.14</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>400215.39</v>
+        <v>392608.46</v>
       </c>
       <c r="I19" t="n">
-        <v>31211.8</v>
+        <v>48557.24</v>
       </c>
       <c r="J19" t="n">
-        <v>24784.61</v>
+        <v>32391.54</v>
       </c>
       <c r="K19" t="n">
-        <v>55996.41</v>
+        <v>80948.78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="C20" t="n">
-        <v>400215.39</v>
+        <v>392608.46</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.48</v>
+        <v>1750.17</v>
       </c>
       <c r="E20" t="n">
-        <v>733.73</v>
+        <v>916.09</v>
       </c>
       <c r="F20" t="n">
-        <v>883.76</v>
+        <v>834.08</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>399331.63</v>
+        <v>391774.37</v>
       </c>
       <c r="I20" t="n">
-        <v>31945.53</v>
+        <v>49473.32</v>
       </c>
       <c r="J20" t="n">
-        <v>25668.37</v>
+        <v>33225.63</v>
       </c>
       <c r="K20" t="n">
-        <v>57613.89</v>
+        <v>82698.95</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="C21" t="n">
-        <v>399331.63</v>
+        <v>391774.37</v>
       </c>
       <c r="D21" t="n">
-        <v>1617.48</v>
+        <v>1750.17</v>
       </c>
       <c r="E21" t="n">
-        <v>732.11</v>
+        <v>914.14</v>
       </c>
       <c r="F21" t="n">
-        <v>885.38</v>
+        <v>836.03</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>398446.26</v>
+        <v>390938.35</v>
       </c>
       <c r="I21" t="n">
-        <v>32677.64</v>
+        <v>50387.46</v>
       </c>
       <c r="J21" t="n">
-        <v>26553.74</v>
+        <v>34061.65</v>
       </c>
       <c r="K21" t="n">
-        <v>59231.38</v>
+        <v>84449.12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="C22" t="n">
-        <v>398446.26</v>
+        <v>390938.35</v>
       </c>
       <c r="D22" t="n">
-        <v>1617.48</v>
+        <v>1750.17</v>
       </c>
       <c r="E22" t="n">
-        <v>730.48</v>
+        <v>912.1900000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>887</v>
+        <v>837.98</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>397559.26</v>
+        <v>390100.37</v>
       </c>
       <c r="I22" t="n">
-        <v>33408.12</v>
+        <v>51299.65</v>
       </c>
       <c r="J22" t="n">
-        <v>27440.74</v>
+        <v>34899.63</v>
       </c>
       <c r="K22" t="n">
-        <v>60848.86</v>
+        <v>86199.28999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="C23" t="n">
-        <v>397559.26</v>
+        <v>390100.37</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.48</v>
+        <v>1750.17</v>
       </c>
       <c r="E23" t="n">
-        <v>728.86</v>
+        <v>910.23</v>
       </c>
       <c r="F23" t="n">
-        <v>888.63</v>
+        <v>839.9299999999999</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>396670.63</v>
+        <v>389260.43</v>
       </c>
       <c r="I23" t="n">
-        <v>34136.98</v>
+        <v>52209.89</v>
       </c>
       <c r="J23" t="n">
-        <v>28329.37</v>
+        <v>35739.57</v>
       </c>
       <c r="K23" t="n">
-        <v>62466.35</v>
+        <v>87949.46000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="C24" t="n">
-        <v>396670.63</v>
+        <v>389260.43</v>
       </c>
       <c r="D24" t="n">
-        <v>1617.48</v>
+        <v>1750.17</v>
       </c>
       <c r="E24" t="n">
-        <v>727.23</v>
+        <v>908.27</v>
       </c>
       <c r="F24" t="n">
-        <v>890.26</v>
+        <v>841.89</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>395780.38</v>
+        <v>388418.54</v>
       </c>
       <c r="I24" t="n">
-        <v>34864.21</v>
+        <v>53118.16</v>
       </c>
       <c r="J24" t="n">
-        <v>29219.62</v>
+        <v>36581.46</v>
       </c>
       <c r="K24" t="n">
-        <v>64083.83</v>
+        <v>89699.62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="C25" t="n">
-        <v>395780.38</v>
+        <v>388418.54</v>
       </c>
       <c r="D25" t="n">
-        <v>1617.48</v>
+        <v>1750.17</v>
       </c>
       <c r="E25" t="n">
-        <v>725.6</v>
+        <v>906.3099999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>891.89</v>
+        <v>843.86</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>394888.49</v>
+        <v>387574.68</v>
       </c>
       <c r="I25" t="n">
-        <v>35589.81</v>
+        <v>54024.47</v>
       </c>
       <c r="J25" t="n">
-        <v>30111.51</v>
+        <v>37425.32</v>
       </c>
       <c r="K25" t="n">
-        <v>65701.32000000001</v>
+        <v>91449.78999999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>49</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>387574.68</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1750.17</v>
+      </c>
+      <c r="E26" t="n">
+        <v>904.34</v>
+      </c>
+      <c r="F26" t="n">
+        <v>845.83</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>386728.85</v>
+      </c>
+      <c r="I26" t="n">
+        <v>54928.81</v>
+      </c>
+      <c r="J26" t="n">
+        <v>38271.15</v>
+      </c>
+      <c r="K26" t="n">
+        <v>93199.96000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>50</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C27" t="n">
+        <v>386728.85</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1750.17</v>
+      </c>
+      <c r="E27" t="n">
+        <v>902.37</v>
+      </c>
+      <c r="F27" t="n">
+        <v>847.8</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>385881.05</v>
+      </c>
+      <c r="I27" t="n">
+        <v>55831.18</v>
+      </c>
+      <c r="J27" t="n">
+        <v>39118.95</v>
+      </c>
+      <c r="K27" t="n">
+        <v>94950.13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>51</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>385881.05</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1750.17</v>
+      </c>
+      <c r="E28" t="n">
+        <v>900.39</v>
+      </c>
+      <c r="F28" t="n">
+        <v>849.78</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>385031.27</v>
+      </c>
+      <c r="I28" t="n">
+        <v>56731.57</v>
+      </c>
+      <c r="J28" t="n">
+        <v>39968.73</v>
+      </c>
+      <c r="K28" t="n">
+        <v>96700.3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>385031.27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1750.17</v>
+      </c>
+      <c r="E29" t="n">
+        <v>898.41</v>
+      </c>
+      <c r="F29" t="n">
+        <v>851.76</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>384179.51</v>
+      </c>
+      <c r="I29" t="n">
+        <v>57629.98</v>
+      </c>
+      <c r="J29" t="n">
+        <v>40820.49</v>
+      </c>
+      <c r="K29" t="n">
+        <v>98450.46000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>384179.51</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1750.17</v>
+      </c>
+      <c r="E30" t="n">
+        <v>896.42</v>
+      </c>
+      <c r="F30" t="n">
+        <v>853.75</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>383325.76</v>
+      </c>
+      <c r="I30" t="n">
+        <v>58526.39</v>
+      </c>
+      <c r="J30" t="n">
+        <v>41674.24</v>
+      </c>
+      <c r="K30" t="n">
+        <v>100200.63</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>383325.76</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1750.17</v>
+      </c>
+      <c r="E31" t="n">
+        <v>894.4299999999999</v>
+      </c>
+      <c r="F31" t="n">
+        <v>855.74</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>382470.02</v>
+      </c>
+      <c r="I31" t="n">
+        <v>59420.82</v>
+      </c>
+      <c r="J31" t="n">
+        <v>42529.98</v>
+      </c>
+      <c r="K31" t="n">
+        <v>101950.8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C32" t="n">
+        <v>382470.02</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1750.17</v>
+      </c>
+      <c r="E32" t="n">
+        <v>892.4299999999999</v>
+      </c>
+      <c r="F32" t="n">
+        <v>857.74</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>381612.28</v>
+      </c>
+      <c r="I32" t="n">
+        <v>60313.25</v>
+      </c>
+      <c r="J32" t="n">
+        <v>43387.72</v>
+      </c>
+      <c r="K32" t="n">
+        <v>103700.97</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>56</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C33" t="n">
+        <v>381612.28</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1750.17</v>
+      </c>
+      <c r="E33" t="n">
+        <v>890.4299999999999</v>
+      </c>
+      <c r="F33" t="n">
+        <v>859.74</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>380752.54</v>
+      </c>
+      <c r="I33" t="n">
+        <v>61203.68</v>
+      </c>
+      <c r="J33" t="n">
+        <v>44247.46</v>
+      </c>
+      <c r="K33" t="n">
+        <v>105451.14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>380752.54</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1750.17</v>
+      </c>
+      <c r="E34" t="n">
+        <v>888.42</v>
+      </c>
+      <c r="F34" t="n">
+        <v>861.75</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>379890.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>62092.1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>45109.2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>107201.31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>379890.8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1750.17</v>
+      </c>
+      <c r="E35" t="n">
+        <v>886.41</v>
+      </c>
+      <c r="F35" t="n">
+        <v>863.76</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>379027.04</v>
+      </c>
+      <c r="I35" t="n">
+        <v>62978.51</v>
+      </c>
+      <c r="J35" t="n">
+        <v>45972.96</v>
+      </c>
+      <c r="K35" t="n">
+        <v>108951.47</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>379027.04</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1750.17</v>
+      </c>
+      <c r="E36" t="n">
+        <v>884.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>865.77</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>378161.27</v>
+      </c>
+      <c r="I36" t="n">
+        <v>63862.91</v>
+      </c>
+      <c r="J36" t="n">
+        <v>46838.73</v>
+      </c>
+      <c r="K36" t="n">
+        <v>110701.64</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>378161.27</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1750.17</v>
+      </c>
+      <c r="E37" t="n">
+        <v>882.38</v>
+      </c>
+      <c r="F37" t="n">
+        <v>867.79</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>377293.48</v>
+      </c>
+      <c r="I37" t="n">
+        <v>64745.29</v>
+      </c>
+      <c r="J37" t="n">
+        <v>47706.52</v>
+      </c>
+      <c r="K37" t="n">
+        <v>112451.81</v>
       </c>
     </row>
   </sheetData>
